--- a/biology/Biochimie/Activateur_enzymatique/Activateur_enzymatique.xlsx
+++ b/biology/Biochimie/Activateur_enzymatique/Activateur_enzymatique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un activateur enzymatique est une substance qui se lie à une enzyme et favorise son activité. C'est l'opposé d'un inhibiteur enzymatique. Ce sont des espèces chimiques souvent impliquées dans la régulation allostérique d'enzymes clés du métabolisme. Ainsi, le fructose-2,6-bisphosphate est un activateur de la phosphofructokinase-1 et accélère la glycolyse en réponse à la présence d'insuline. Autre exemple, l'acétyl-CoA est un activateur allostérique de la pyruvate carboxylase.
 Dans certains cas, le substrat lui-même peut avoir un effet allostérique sur l'ensemble d'une enzyme en se liant simplement à l'une de ses sous-unités, ce qui a pour effet d'accroître l'activité catalytique des autres sous-unités de l'enzyme ainsi que leur affinité pour le substrat.
